--- a/controllers/output.xlsx
+++ b/controllers/output.xlsx
@@ -511,24 +511,24 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1027428</v>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sravan</t>
+          <t>testdata1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Chekuri</t>
+          <t>testdata1LN</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>38867</v>
+        <v>36971</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>9912355009</t>
+          <t>8499963345</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>sravanchekuri449@gmail.com</t>
+          <t>test1@gmail.com</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -564,47 +564,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C0010</t>
+          <t>E0001</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45456</v>
+        <v>45460</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1027428</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>test11</t>
+          <t>testdata1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>test1LN</t>
+          <t>testdata1LN</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>38869</v>
+        <v>36971</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bangalore</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Candidate</t>
+          <t>Employee</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1234678778</t>
+          <t>8499963345</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>test2@gmail.com</t>
+          <t>test1@hritf.com</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">

--- a/controllers/output.xlsx
+++ b/controllers/output.xlsx
@@ -16,20 +16,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,22 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,196 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Employee_Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Effective_Start_Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Effective_End_Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>First_Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Middle_Name</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Last_Name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Date_Of_Birth</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Job_Location</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Worker_Type</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Mobile_No</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Email_Id</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Created_By</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Last_Updated_By</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C0001</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45459</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>testdata1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>testdata1LN</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>36971</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Hyderabad</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Candidate</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>8499963345</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>test1@gmail.com</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>HRName</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>HRName</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>E0001</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1027428</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>testdata1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>testdata1LN</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>36971</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Hyderabad</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>8499963345</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>test1@hritf.com</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>HRName</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>HRName</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>